--- a/data/income_statement/2digits/size/14_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/14_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>14-Manufacture of wearing apparel</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>14-Manufacture of wearing apparel</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1172 +841,1322 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6292264.12297</v>
+        <v>6472321.773159999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6281440.04812</v>
+        <v>6544165.77833</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7152075.78279</v>
+        <v>7473080.1915</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7123021.41937</v>
+        <v>7516296.271840001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9412309.95506</v>
+        <v>9915235.21424</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10307396.26749</v>
+        <v>10844179.16842</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10802966.23892</v>
+        <v>11504955.54754</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11603346.59898</v>
+        <v>12352250.93796</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>12643965.7629</v>
+        <v>13587799.97906</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>23216654.59858</v>
+        <v>23854915.10486</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>26212337.32221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27752524.73581</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>28389884.192</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4414750.39274</v>
+        <v>4523937.30439</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4654805.29821</v>
+        <v>4831762.88424</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5338348.74013</v>
+        <v>5580926.24707</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5580708.935339999</v>
+        <v>5879694.146259999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7178064.820649999</v>
+        <v>7562769.059799999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7924745.87636</v>
+        <v>8331936.74656</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8559536.06474</v>
+        <v>9123584.09365</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9096807.64543</v>
+        <v>9710071.80101</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>10065482.46105</v>
+        <v>10782024.00843</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>17975196.7623</v>
+        <v>18402417.95119</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>20281828.88944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21463709.88286</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>21677300.101</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1803120.16272</v>
+        <v>1869312.96623</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1555424.68199</v>
+        <v>1640282.31567</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1732396.74764</v>
+        <v>1803683.18376</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1472737.93577</v>
+        <v>1562515.5163</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2137598.39983</v>
+        <v>2247353.62929</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2284160.05704</v>
+        <v>2406800.04848</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2126171.95346</v>
+        <v>2253125.39638</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2351329.23634</v>
+        <v>2471873.93258</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2422316.70259</v>
+        <v>2632952.83575</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4949860.65371</v>
+        <v>5159601.4205</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5602634.863790001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5956591.183370001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6333098.089</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>74393.56751000001</v>
+        <v>79071.50253999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>71210.06792</v>
+        <v>72120.57842000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>81330.29501999999</v>
+        <v>88470.76067</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>69574.54826</v>
+        <v>74086.60928</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>96646.73458</v>
+        <v>105112.52515</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>98490.33408999999</v>
+        <v>105442.37338</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>117258.22072</v>
+        <v>128246.05751</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>155209.71721</v>
+        <v>170305.20437</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>156166.59926</v>
+        <v>172823.13488</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>291597.18257</v>
+        <v>292895.73317</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>327873.56898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>332223.66958</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>379486.002</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>128336.24427</v>
+        <v>132045.50112</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>113274.49589</v>
+        <v>121365.90604</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>134976.02959</v>
+        <v>144132.71781</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>121308.17234</v>
+        <v>133114.56027</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>171715.67758</v>
+        <v>184024.64084</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>186606.72506</v>
+        <v>201043.99982</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>197808.29025</v>
+        <v>208433.88091</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>251918.82698</v>
+        <v>281423.9731</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>235664.30108</v>
+        <v>265234.56634</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1028068.66905</v>
+        <v>1050962.08821</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>670594.0550200001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>707081.82476</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>969675.948</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>97620.07556</v>
+        <v>99720.68366</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>84544.68195</v>
+        <v>90485.96924999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>99038.31677</v>
+        <v>106238.67255</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>94554.05968999999</v>
+        <v>105130.01803</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>133177.97318</v>
+        <v>142639.14456</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>142597.07996</v>
+        <v>155277.22423</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>156770.72414</v>
+        <v>165561.34828</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>207678.13826</v>
+        <v>234299.76297</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>202066.08475</v>
+        <v>226747.08192</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>926776.47717</v>
+        <v>948330.13598</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>568138.84239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>600656.9284399999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>743225.122</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>18506.88295</v>
+        <v>19855.46832</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>17192.4353</v>
+        <v>19043.82901</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>22183.17996</v>
+        <v>23292.54256</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>16147.20102</v>
+        <v>16852.15403</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>22102.94032</v>
+        <v>24347.04238</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>22332.57275</v>
+        <v>23517.75334</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>21971.67991</v>
+        <v>22894.11934</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>29281.51228</v>
+        <v>30831.48523</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>19679.30103</v>
+        <v>20568.33231</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>51862.68067</v>
+        <v>51031.08402</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>52217.75722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>53780.6488</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>170293.807</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>12209.28576</v>
+        <v>12469.34914</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>11537.37864</v>
+        <v>11836.10778</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>13754.53286</v>
+        <v>14601.5027</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>10606.91163</v>
+        <v>11132.38821</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>16434.76408</v>
+        <v>17038.4539</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>21677.07235</v>
+        <v>22249.02225</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>19065.8862</v>
+        <v>19978.41329</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>14959.17644</v>
+        <v>16292.7249</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>13918.9153</v>
+        <v>17919.15211</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>49429.51121</v>
+        <v>51600.86821</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>50237.45541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>52644.24752</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>56157.019</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6163927.878699999</v>
+        <v>6340276.27204</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6168165.55223</v>
+        <v>6422799.87229</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7017099.7532</v>
+        <v>7328947.47369</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7001713.247029999</v>
+        <v>7383181.71157</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9240594.277479999</v>
+        <v>9731210.5734</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10120789.54243</v>
+        <v>10643135.1686</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10605157.94867</v>
+        <v>11296521.66663</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>11351427.772</v>
+        <v>12070826.96486</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>12408301.46182</v>
+        <v>13322565.41272</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>22188585.92953</v>
+        <v>22803953.01665</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>25541743.26719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>27045442.91105</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>27420208.244</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5184913.93677</v>
+        <v>5330893.69791</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5235745.46823</v>
+        <v>5452266.39709</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5972805.00173</v>
+        <v>6223629.624109999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5950661.3142</v>
+        <v>6281616.39783</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7878730.41003</v>
+        <v>8293265.62025</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8604366.037139999</v>
+        <v>9035762.49388</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9105698.044059999</v>
+        <v>9680920.50571</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9747603.649499999</v>
+        <v>10339974.73586</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>10647366.56741</v>
+        <v>11388917.70612</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>19099723.58479</v>
+        <v>19612028.74497</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22246019.55332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23585812.14013</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>23839569.889</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3821966.92531</v>
+        <v>3936790.13583</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3762716.64292</v>
+        <v>3945843.84172</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4212021.05623</v>
+        <v>4426251.22209</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4216926.36825</v>
+        <v>4501786.10676</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5733038.354499999</v>
+        <v>6094516.080719999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6130920.578389999</v>
+        <v>6479964.5903</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6297840.513870001</v>
+        <v>6788176.73153</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6541920.43705</v>
+        <v>7022194.10594</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7002275.36557</v>
+        <v>7587711.74079</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>13846396.97472</v>
+        <v>14215100.9301</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>15680815.10705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16323918.72649</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>15309215.846</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>929481.3091600001</v>
+        <v>955508.28527</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1004610.52066</v>
+        <v>1039702.50699</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1231700.87761</v>
+        <v>1264604.80465</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1144330.96621</v>
+        <v>1180657.47419</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1509158.11175</v>
+        <v>1565808.16171</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1760980.07213</v>
+        <v>1836677.93825</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2057389.40196</v>
+        <v>2142294.92091</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2305451.18671</v>
+        <v>2401610.09725</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2561612.24492</v>
+        <v>2705312.46003</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3884737.99439</v>
+        <v>4018556.84089</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4948992.94206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5545417.477030001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6577211.434</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>418870.397</v>
+        <v>422360.74357</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>455541.08324</v>
+        <v>454637.15136</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>508685.88686</v>
+        <v>511334.94546</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>576363.53539</v>
+        <v>582277.76015</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>613814.71501</v>
+        <v>610474.0434099999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>692092.16767</v>
+        <v>699207.5001500001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>728055.43638</v>
+        <v>729645.3302800001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>876614.13988</v>
+        <v>891301.5348500001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1055342.67872</v>
+        <v>1063980.02058</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1323727.74409</v>
+        <v>1331293.82865</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1576430.18663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1679163.21271</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1835874.819</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>14595.3053</v>
+        <v>16234.53324</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>12877.22141</v>
+        <v>12082.89702</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>20397.18103</v>
+        <v>21438.65191</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>13040.44435</v>
+        <v>16895.05673</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>22719.22877</v>
+        <v>22467.33441</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>20373.21895</v>
+        <v>19912.46518</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>22412.69185</v>
+        <v>20803.52299</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>23617.88586</v>
+        <v>24868.99782</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>28136.2782</v>
+        <v>31913.48472</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>44860.87159</v>
+        <v>47077.14533</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>39781.31758</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37312.7239</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>117267.79</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>979013.94193</v>
+        <v>1009382.57413</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>932420.084</v>
+        <v>970533.4752000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1044294.75147</v>
+        <v>1105317.84958</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1051051.93283</v>
+        <v>1101565.31374</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1361863.86745</v>
+        <v>1437944.95315</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1516423.50529</v>
+        <v>1607372.67472</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1499459.90461</v>
+        <v>1615601.16092</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1603824.1225</v>
+        <v>1730852.229</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1760934.89441</v>
+        <v>1933647.7066</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3088862.34474</v>
+        <v>3191924.27168</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3295723.71387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3459630.77092</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3580638.355</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>722014.5345800001</v>
+        <v>742921.8144299999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>694057.8261800001</v>
+        <v>725000.2603599998</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>764347.66201</v>
+        <v>800083.55914</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>805037.06389</v>
+        <v>843425.04712</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1039926.00264</v>
+        <v>1084231.97821</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1102952.92213</v>
+        <v>1143807.63331</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1123575.37136</v>
+        <v>1186619.15806</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1243584.84132</v>
+        <v>1313638.99819</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1289118.5388</v>
+        <v>1382465.10703</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1994330.93086</v>
+        <v>2012076.37278</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2286412.02537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2354955.3882</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2437726.99</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2255.99035</v>
+        <v>2270.18451</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1171.40967</v>
+        <v>1148.23701</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1830.45892</v>
+        <v>1842.08693</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3222.42657</v>
+        <v>3354.18154</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1663.24677</v>
+        <v>1570.27417</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2618.87029</v>
+        <v>2756.59859</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1736.15685</v>
+        <v>1661.92651</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4464.61074</v>
+        <v>4982.671240000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>7288.67119</v>
+        <v>6761.84105</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>2398.42134</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6187.75594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6379.50634</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1825.895</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>216813.24864</v>
+        <v>227022.53626</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>200686.04144</v>
+        <v>212031.27932</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>211942.97827</v>
+        <v>228150.58332</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>219742.55133</v>
+        <v>239282.50928</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>300284.46667</v>
+        <v>325834.89105</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>325671.5971300001</v>
+        <v>347689.56199</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>315631.38644</v>
+        <v>348788.02063</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>362215.73197</v>
+        <v>403287.3845</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>361697.86695</v>
+        <v>414258.55778</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>672398.47749</v>
+        <v>695240.48417</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>739437.59468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>777247.92322</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>808288.7929999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>502945.2955900001</v>
+        <v>513629.09366</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>492200.37507</v>
+        <v>511820.7440299999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>550574.22482</v>
+        <v>570090.8888899999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>582072.0859900001</v>
+        <v>600788.3563</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>737978.2892</v>
+        <v>756826.81299</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>774662.45471</v>
+        <v>793361.47273</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>806207.82807</v>
+        <v>836169.2109200001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>876904.4986099999</v>
+        <v>905368.94245</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>920132.00066</v>
+        <v>961444.7081999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1319534.03203</v>
+        <v>1314437.46727</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1540786.67475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1571327.95864</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1627612.302</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>256999.40735</v>
+        <v>266460.7597</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>238362.25782</v>
+        <v>245533.21484</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>279947.08946</v>
+        <v>305234.29044</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>246014.86894</v>
+        <v>258140.26662</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>321937.8648099999</v>
+        <v>353712.97494</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>413470.58316</v>
+        <v>463565.0414099999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>375884.53325</v>
+        <v>428982.00286</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>360239.28118</v>
+        <v>417213.23081</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>471816.35561</v>
+        <v>551182.59957</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1094531.41388</v>
+        <v>1179847.8989</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1009311.6885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1104675.38272</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1142911.365</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>106905.59577</v>
+        <v>132420.66451</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>79294.59858999999</v>
+        <v>107755.52004</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>116553.60976</v>
+        <v>171091.39883</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>68924.52778999999</v>
+        <v>89564.02478000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>156659.99851</v>
+        <v>179515.73498</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>134189.12424</v>
+        <v>144725.25217</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>214935.51749</v>
+        <v>257519.77998</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>188412.2141</v>
+        <v>234264.60696</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>195169.05292</v>
+        <v>266523.19896</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>957210.6707299999</v>
+        <v>1032281.78346</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>585281.9061200001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>571108.86433</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1080907.975</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1324.42167</v>
+        <v>110.61907</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>278.25269</v>
+        <v>1840.97167</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1128.855</v>
+        <v>441.7385</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>591.11531</v>
+        <v>120.46213</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>721.97219</v>
+        <v>408.02082</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>79.87200999999999</v>
+        <v>5806.76292</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>121.71955</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2759.6968</v>
+        <v>9210.49042</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3584.2346</v>
+        <v>203.58156</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>16134.9609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1687.81308</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>7926.739</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>179.18232</v>
+        <v>14.99352</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>156.23948</v>
+        <v>2.72335</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>373.55714</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>93.42447</v>
+        <v>12.71747</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>48.75777</v>
+        <v>50.63105</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>16.73165</v>
+        <v>10.9946</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>178.45385</v>
+        <v>161.51327</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>34.94130999999999</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>829.55824</v>
+        <v>786.82809</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>2436.18736</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>125.565</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>10312.47369</v>
+        <v>15018.8009</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7880.107749999999</v>
+        <v>8149.87467</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8296.030000000001</v>
+        <v>8234.359480000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8910.95462</v>
+        <v>9786.20925</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>9851.366649999998</v>
+        <v>11656.41311</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>12341.49928</v>
+        <v>13138.24304</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13749.37579</v>
+        <v>15247.13277</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>14689.34083</v>
+        <v>18199.80383</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>17913.74531</v>
+        <v>21572.00357</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>55878.75683999999</v>
+        <v>56399.42725</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>58168.45280000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>54238.94559</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>42779.022</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>936.7428199999999</v>
+        <v>926.42989</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>429.91666</v>
+        <v>471.78276</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>814.78298</v>
+        <v>658.37862</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>493.29918</v>
+        <v>479.55185</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2843.58422</v>
+        <v>3787.46262</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3260.82077</v>
+        <v>3286.16885</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2400.95419</v>
+        <v>2419.81571</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2587.59219</v>
+        <v>2423.4023</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2883.50296</v>
+        <v>3771.71351</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4489.51796</v>
+        <v>5842.41251</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2974.81968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>6223.17272</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>10485.764</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1145.29673</v>
+        <v>1263.076</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1440.94276</v>
+        <v>2426.57801</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2657.34271</v>
+        <v>42135.43268</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1880.31845</v>
+        <v>1293.97725</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2718.19578</v>
+        <v>2010.81144</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2128.3711</v>
+        <v>1378.03855</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1787.8377</v>
+        <v>1789.99701</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3910.93284</v>
+        <v>3076.01688</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2725.61561</v>
+        <v>2472.13156</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3382.1215</v>
+        <v>3148.53529</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6197.54654</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>24042.41404</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>10180.347</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>612.52635</v>
+        <v>5753.61231</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>253.46902</v>
+        <v>240.72596</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>520.3975799999999</v>
+        <v>516.19623</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>550.44727</v>
+        <v>542.62983</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>373.2859</v>
+        <v>506.4675</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1555.71393</v>
+        <v>1826.8477</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1835.0568</v>
+        <v>1686.81057</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>675.8318400000001</v>
+        <v>649.62063</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2609.35645</v>
+        <v>609.29398</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1315.76978</v>
+        <v>1306.60295</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1494.77342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1495.16711</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>7991.319</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>65374.01201999999</v>
+        <v>76625.15099000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>51216.97428</v>
+        <v>74634.20452</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>84242.97421</v>
+        <v>94101.10634</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>38612.92889</v>
+        <v>50748.83467</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>106809.43782</v>
+        <v>131924.38891</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>77898.4569</v>
+        <v>93106.87879999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>157541.90445</v>
+        <v>190761.56963</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>123582.15102</v>
+        <v>169547.71958</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>116632.26358</v>
+        <v>177594.92567</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>805488.5701499999</v>
+        <v>877940.8753</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>391244.08452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>376679.30475</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>742015.916</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>447.3166</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>65.45979</v>
+        <v>125.43845</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>206.57658</v>
+        <v>228.34456</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>150.22148</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>238.84656</v>
+        <v>983.92645</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>379.759</v>
+        <v>835.1553699999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>652.4980399999999</v>
+        <v>352.47773</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>276.37362</v>
+        <v>363.80015</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>123.70072</v>
+        <v>132.83676</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>316.35588</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2285.4309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2006.11696</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>871.915</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.37215</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>197.13735</v>
+        <v>202.59768</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>296.7747</v>
+        <v>341.94823</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>48.4389</v>
+        <v>40.91655</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>132.84198</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>116.84823</v>
+        <v>46.20294000000001</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>27.73289</v>
+        <v>77.04006</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>834.4312200000001</v>
+        <v>150.23122</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>838.79059</v>
+        <v>71.80508999999999</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,311 +2164,351 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>180.579</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>26573.25142</v>
+        <v>32260.29308</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>17376.09881</v>
+        <v>19660.62297</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>18389.876</v>
+        <v>24433.89419</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>17313.24655</v>
+        <v>26401.22177</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>33599.01513</v>
+        <v>28500.7055</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>35736.92507</v>
+        <v>30649.06505</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>36843.55397</v>
+        <v>39367.17898</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>41555.38714</v>
+        <v>39570.77955</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>48647.43959</v>
+        <v>51087.9984</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>81925.78578000001</v>
+        <v>86337.16463</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>104345.65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>102299.74272</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>258350.809</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>101660.06982</v>
+        <v>122763.21531</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>79269.95608</v>
+        <v>101999.15033</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>107844.5617</v>
+        <v>119899.02764</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>66373.37731</v>
+        <v>77473.74614</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>132949.31347</v>
+        <v>195701.05358</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>129962.55044</v>
+        <v>157063.39189</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>192708.61135</v>
+        <v>247155.00862</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>161829.78498</v>
+        <v>231331.17088</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>144567.60966</v>
+        <v>225902.15504</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>949372.5881099999</v>
+        <v>1148302.08163</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>500155.75815</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>483153.0743400001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>792274.199</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>9296.452730000001</v>
+        <v>9677.73019</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>7194.07016</v>
+        <v>7397.92966</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>10112.62179</v>
+        <v>10113.66683</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6448.218589999999</v>
+        <v>6593.53396</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>11344.02639</v>
+        <v>11879.31507</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>8604.57669</v>
+        <v>10441.3307</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8827.94908</v>
+        <v>9070.006870000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8573.827120000002</v>
+        <v>8559.729539999998</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>8842.048500000001</v>
+        <v>9152.148459999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>26776.80205</v>
+        <v>27480.84006</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>33691.75649</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>34518.53741</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>28476.143</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>12449.54207</v>
+        <v>11822.33631</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9619.65314</v>
+        <v>9561.586539999998</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>11322.73972</v>
+        <v>11759.62885</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>10707.2024</v>
+        <v>11057.86596</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>11799.79405</v>
+        <v>15923.8146</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>15167.32569</v>
+        <v>19649.83232</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>19484.81783</v>
+        <v>19634.94328</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>23326.85645</v>
+        <v>26401.11441</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>23038.85715</v>
+        <v>23527.63766</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>25820.68305</v>
+        <v>27254.02294</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>43046.23214000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>38352.64345</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>49274.92</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>132.28959</v>
+        <v>1889.78992</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>144.60182</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>132.56583</v>
+        <v>117.01495</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>125.40091</v>
+        <v>128.49381</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>53.1239</v>
+        <v>2011.28839</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1347.04964</v>
+        <v>1428.43218</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>161.43032</v>
+        <v>4514.03308</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1310.43237</v>
+        <v>1079.44522</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>482.0787099999999</v>
+        <v>82.43275</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>406.32125</v>
+        <v>406.30141</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>18286.91577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1255.7459</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2510.47</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>66916.74516999999</v>
+        <v>80146.15325999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>55078.76263</v>
+        <v>78282.22197</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>77497.42015999999</v>
+        <v>88866.03495</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>39924.51122</v>
+        <v>49703.63018000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>94584.79359999999</v>
+        <v>150325.84457</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>93101.91193</v>
+        <v>112771.52579</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>152097.83878</v>
+        <v>199506.34356</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>117124.27999</v>
+        <v>184581.62829</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>101609.29248</v>
+        <v>180906.574</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>858630.31655</v>
+        <v>1054453.20088</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>377079.38877</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>383440.81097</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>674661.5699999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>308.22427</v>
+        <v>312.75691</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>139.93603</v>
+        <v>154.74617</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>253.84788</v>
+        <v>272.18273</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>166.79867</v>
+        <v>202.29271</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>916.82645</v>
+        <v>1488.50153</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>109.55484</v>
+        <v>223.76498</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>590.88087</v>
+        <v>294.64548</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>265.25963</v>
+        <v>264.62337</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>181.79326</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2237.7163</v>
+        <v>2206.6081</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2248.14981</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1740.03321</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>2114.588</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>373.91875</v>
+        <v>186.24117</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>188.8478</v>
+        <v>1.17132</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>246.78188</v>
+        <v>59.10429999999999</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>242.22263</v>
+        <v>31.38226</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>57.57892</v>
+        <v>57.58873</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>35.57987</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>8.221200000000001</v>
+        <v>6.38192</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.0762</v>
+        <v>0.00023</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>42.7782</v>
+        <v>38.06177</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>3.17343</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>3.858</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>12182.89724</v>
+        <v>18728.20755</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>6904.0845</v>
+        <v>6456.892849999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8278.584439999999</v>
+        <v>8711.39503</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8759.02289</v>
+        <v>9756.547259999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>14193.17016</v>
+        <v>14014.70069</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>11596.55178</v>
+        <v>12512.92605</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>11537.47327</v>
+        <v>14128.65443</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11229.05322</v>
+        <v>10444.62982</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>10370.76136</v>
+        <v>12013.50714</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>35500.74890999999</v>
+        <v>36501.10824</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>25800.14174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>23842.12997</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>35232.65</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>76168.62486</v>
+        <v>89107.2953</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>59249.00905</v>
+        <v>66404.73760000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>71054.88301000001</v>
+        <v>79330.17762</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>79703.41190000001</v>
+        <v>99255.68695</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>105281.5539</v>
+        <v>149140.63223</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>117730.61623</v>
+        <v>146056.11092</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>135428.2397</v>
+        <v>171728.04822</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>143641.70232</v>
+        <v>192765.95117</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>157957.52129</v>
+        <v>214607.36326</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>424035.32606</v>
+        <v>499661.79924</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>423598.9898</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>490812.00822</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>486308.12</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>74272.36719999999</v>
+        <v>85421.24286</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>57905.79716</v>
+        <v>64924.97499</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>69279.00941</v>
+        <v>77625.12269</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>77931.38058</v>
+        <v>96909.05368000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>102676.51237</v>
+        <v>145476.19509</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>114226.54688</v>
+        <v>141150.35631</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>130326.55415</v>
+        <v>164103.06481</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>139875.06119</v>
+        <v>184925.47146</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>152540.12653</v>
+        <v>204256.6963</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>403565.87117</v>
+        <v>462910.3484</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>408354.65886</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>466408.90247</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>462829.86</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1896.25766</v>
+        <v>3686.05244</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1343.21189</v>
+        <v>1479.76261</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1775.8736</v>
+        <v>1705.05493</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1772.03132</v>
+        <v>2346.63327</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2605.04153</v>
+        <v>3664.43714</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3504.06935</v>
+        <v>4905.75461</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5101.68555</v>
+        <v>7624.98341</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3766.64113</v>
+        <v>7840.47971</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>5417.39476</v>
+        <v>10350.66696</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>20469.45489</v>
+        <v>36751.45084</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>15244.33094</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>24403.10575</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>23478.26</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>186076.30844</v>
+        <v>187010.9136</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>179137.89128</v>
+        <v>184884.84695</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>217601.25451</v>
+        <v>277096.48401</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>168862.60752</v>
+        <v>170974.85831</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>240366.99595</v>
+        <v>188387.02411</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>299966.5407299999</v>
+        <v>305170.79077</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>262683.19969</v>
+        <v>267618.726</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>243180.00798</v>
+        <v>227380.71572</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>364460.27758</v>
+        <v>377196.28023</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>678334.1704399999</v>
+        <v>564165.80149</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>670838.8466700001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>701819.16449</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>945237.0209999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>33026.34173</v>
+        <v>30421.93324</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>32762.42569</v>
+        <v>39007.18019</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>33676.37861</v>
+        <v>35888.56197</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>38986.10256</v>
+        <v>45360.97500999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>44884.72606999999</v>
+        <v>42808.29522</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>53648.22404000001</v>
+        <v>59673.19238</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>53024.54758</v>
+        <v>60976.40198</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>59870.58828</v>
+        <v>90398.60828999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>72533.05112</v>
+        <v>93016.06847</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>133657.54729</v>
+        <v>132669.80062</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>151956.81134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>171614.81706</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>178359.172</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>840.7304</v>
+        <v>985.81376</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>813.28841</v>
+        <v>871.57104</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>313.24032</v>
+        <v>218.74956</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>815.91108</v>
+        <v>847.4874900000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>198.575</v>
+        <v>200.98512</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>442.09239</v>
+        <v>544.9771699999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>463.0121899999999</v>
+        <v>653.6376899999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>448.78792</v>
+        <v>375.84244</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>511.21916</v>
+        <v>855.3042399999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>988.33754</v>
+        <v>886.62001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1150.06969</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>18277.12932</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2168.855</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>32185.61133</v>
+        <v>29436.11948</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>31949.13728</v>
+        <v>38135.60915</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>33363.13829</v>
+        <v>35669.81241000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>38170.19147999999</v>
+        <v>44513.48752</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>44686.15107</v>
+        <v>42607.3101</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>53206.13164999999</v>
+        <v>59128.21521</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>52561.53539</v>
+        <v>60322.76429</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>59421.80036</v>
+        <v>90022.76585000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>72021.83196000001</v>
+        <v>92160.76422999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>132669.20975</v>
+        <v>131783.18061</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>150806.74165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>153337.68774</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>176190.317</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>38094.87529</v>
+        <v>38866.59871</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>35704.16219</v>
+        <v>34745.92218</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>257023.45462</v>
+        <v>299290.6099099999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>36644.97665999999</v>
+        <v>39275.94102000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>38209.26042</v>
+        <v>43301.73089</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>140210.85876</v>
+        <v>139393.97862</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>53027.688</v>
+        <v>54156.23174</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>209771.77704</v>
+        <v>208304.11069</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>62000.89642</v>
+        <v>62294.29983</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>204219.75574</v>
+        <v>233472.38486</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>104260.15858</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>96180.37026000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>109518.258</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2840.11844</v>
+        <v>2771.18644</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2368.77068</v>
+        <v>2149.05957</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>3726.23717</v>
+        <v>3169.52461</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3651.45735</v>
+        <v>2742.67336</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2591.73676</v>
+        <v>2247.82581</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4249.531220000001</v>
+        <v>3925.42041</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4587.92212</v>
+        <v>6769.84019</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>7129.42457</v>
+        <v>7121.90401</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>6636.27549</v>
+        <v>6346.07622</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>5243.446800000001</v>
+        <v>6742.17828</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>9370.632</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>10262.97398</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7208.007</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1804.71624</v>
+        <v>3784.64076</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2015.42775</v>
+        <v>2019.66695</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3767.73883</v>
+        <v>3945.08333</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>972.2761800000001</v>
+        <v>1016.07053</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1212.67379</v>
+        <v>2622.19173</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3447.69129</v>
+        <v>3328.5973</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3716.38517</v>
+        <v>3727.56055</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1821.88052</v>
+        <v>2163.84602</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1405.04149</v>
+        <v>1540.64286</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2597.03839</v>
+        <v>2230.22885</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5642.148080000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2789.83898</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2609.407</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>33450.04061</v>
+        <v>32310.77151</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>31319.96376</v>
+        <v>30577.19566</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>249529.47862</v>
+        <v>292176.00197</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>32021.24313</v>
+        <v>35517.19712999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>34404.84987</v>
+        <v>38431.71335</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>132513.63625</v>
+        <v>132139.96091</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>44723.38070999999</v>
+        <v>43658.831</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>200820.47195</v>
+        <v>199018.36066</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>53959.57943999999</v>
+        <v>54407.58075</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>196379.27055</v>
+        <v>224499.97773</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>89247.37850000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>83127.55730000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>99700.844</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>181007.77488</v>
+        <v>178566.24813</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>176196.15478</v>
+        <v>189146.10496</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-5745.8215</v>
+        <v>13694.43607</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>171203.73342</v>
+        <v>177059.8923</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>247042.4616</v>
+        <v>187893.58844</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>213403.90601</v>
+        <v>225450.00453</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>262680.05927</v>
+        <v>274438.89624</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>93278.81922</v>
+        <v>109475.21332</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>374992.4322799999</v>
+        <v>407918.04887</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>607771.96199</v>
+        <v>463363.21725</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>718535.4994300001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>777253.6112899999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1014077.935</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>42821.38290999999</v>
+        <v>43802.92279</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>40102.93828</v>
+        <v>41770.82090999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>50119.29831999999</v>
+        <v>51843.32365</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>42333.24412</v>
+        <v>44940.85999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>60265.18391000001</v>
+        <v>60877.69468</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>61506.77042</v>
+        <v>63072.03582</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>65630.69859</v>
+        <v>68352.82986</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>70154.97831999999</v>
+        <v>71175.50266</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>83834.50142000002</v>
+        <v>87348.73203999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>169269.05033</v>
+        <v>171365.10282</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>177844.94086</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>177595.18923</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>230294.286</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>138186.39197</v>
+        <v>134763.32534</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>136093.2165</v>
+        <v>147375.28405</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-55865.11982000001</v>
+        <v>-38148.88758</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>128870.4893</v>
+        <v>132119.03231</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>186777.27769</v>
+        <v>127015.89376</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>151897.13559</v>
+        <v>162377.96871</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>197049.36068</v>
+        <v>206086.06638</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>23123.84090000001</v>
+        <v>38299.71066</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>291157.93086</v>
+        <v>320569.31683</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>438502.91166</v>
+        <v>291998.11443</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>540690.5585700001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>599658.42206</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>783783.649</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3638</v>
+        <v>3276</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3567</v>
+        <v>3214</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3692</v>
+        <v>3366</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3747</v>
+        <v>3433</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4052</v>
+        <v>3636</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4158</v>
+        <v>3689</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4182</v>
+        <v>3646</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4364</v>
+        <v>3676</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4514</v>
+        <v>3826</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3835</v>
+        <v>3521</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3701</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>